--- a/turning/GIIFM19/GIIFM19Frames_20201116.xlsx
+++ b/turning/GIIFM19/GIIFM19Frames_20201116.xlsx
@@ -1,75 +1,91 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\extra32\_Projects\Glyci_II\DATA\ELPHYS\freely_moving\Emi\_GIIFM19\20201116\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_R_WD\git_projects\gii_analysis\turning\GIIFM19\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F28E3C-E81F-44DD-BC22-3AF95BFF4348}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700"/>
+    <workbookView xWindow="40275" yWindow="4035" windowWidth="17925" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="12">
   <si>
     <t>GIIFM19</t>
   </si>
   <si>
-    <t>video</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stimek </t>
-  </si>
-  <si>
-    <t>frame</t>
-  </si>
-  <si>
-    <t>0,5mW 40Hz 10sec</t>
-  </si>
-  <si>
-    <t>1mW 40Hz 10sec</t>
-  </si>
-  <si>
-    <t>5mW 40Hz 10sec</t>
-  </si>
-  <si>
-    <t>10mW 40Hz 10sec</t>
-  </si>
-  <si>
-    <t>15mW 40Hz 10sec</t>
-  </si>
-  <si>
     <t>start</t>
   </si>
   <si>
     <t>end</t>
   </si>
   <si>
-    <t>15mW 30sec 40Hz</t>
+    <t>video2_coords</t>
+  </si>
+  <si>
+    <t>session</t>
+  </si>
+  <si>
+    <t>video3_coords</t>
+  </si>
+  <si>
+    <t>video4_coords</t>
+  </si>
+  <si>
+    <t>video5_coords</t>
+  </si>
+  <si>
+    <t>video1_coords</t>
+  </si>
+  <si>
+    <t>video0_coords</t>
+  </si>
+  <si>
+    <t>animal</t>
+  </si>
+  <si>
+    <t>stim number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -377,394 +393,498 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
     <col min="3" max="3" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>20201116</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1441</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E6" si="0">D2+250</f>
+        <v>1691</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>1441</v>
+        <v>5148</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E7" si="0">D3+250</f>
-        <v>1691</v>
+        <f t="shared" si="0"/>
+        <v>5398</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>5148</v>
+        <v>6627</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>5398</v>
+        <v>6877</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>6627</v>
+        <v>8124</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>6877</v>
+        <v>8374</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
       <c r="C6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>8124</v>
+        <v>9700</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>8374</v>
+        <v>9950</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
       <c r="C7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>9700</v>
+        <v>422</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
-        <v>9950</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>422</v>
-      </c>
-      <c r="E13">
-        <f t="shared" ref="E13:E17" si="1">D13+250</f>
+        <f t="shared" ref="E7:E11" si="1">D7+250</f>
         <v>672</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C14">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="D14">
+      <c r="D8">
         <v>2660</v>
       </c>
-      <c r="E14">
+      <c r="E8">
         <f t="shared" si="1"/>
         <v>2910</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
         <v>4161</v>
       </c>
-      <c r="E15">
+      <c r="E9">
         <f t="shared" si="1"/>
         <v>4411</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C16">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
         <v>4</v>
       </c>
-      <c r="D16">
+      <c r="D10">
         <v>5681</v>
       </c>
-      <c r="E16">
+      <c r="E10">
         <f t="shared" si="1"/>
         <v>5931</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C17">
-        <v>5</v>
-      </c>
-      <c r="D17">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
         <v>7185</v>
       </c>
-      <c r="E17">
+      <c r="E11">
         <f t="shared" si="1"/>
         <v>7435</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1869</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:E15" si="2">D12+250</f>
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
         <v>2</v>
       </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>8359</v>
-      </c>
-      <c r="E20">
-        <f t="shared" ref="E20:E24" si="2">D20+250</f>
-        <v>8609</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>1869</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="2"/>
-        <v>2119</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C22">
-        <v>3</v>
-      </c>
-      <c r="D22">
+      <c r="D13">
         <v>3625</v>
       </c>
-      <c r="E22">
+      <c r="E13">
         <f t="shared" si="2"/>
         <v>3875</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C23">
-        <v>4</v>
-      </c>
-      <c r="D23">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
         <v>4914</v>
       </c>
-      <c r="E23">
+      <c r="E14">
         <f t="shared" si="2"/>
         <v>5164</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C24">
-        <v>5</v>
-      </c>
-      <c r="D24">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
         <v>6319</v>
       </c>
-      <c r="E24">
+      <c r="E15">
         <f t="shared" si="2"/>
         <v>6569</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>8359</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ref="E16" si="3">D16+250</f>
+        <v>8609</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>567</v>
+      </c>
+      <c r="E17">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>2458</v>
+      </c>
+      <c r="E18">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>3990</v>
+      </c>
+      <c r="E19">
+        <f>D19+250</f>
+        <v>4240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>5473</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20:E21" si="4">D20+250</f>
+        <v>5723</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>7320</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="4"/>
+        <v>7570</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>747</v>
+      </c>
+      <c r="E22">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>2709</v>
+      </c>
+      <c r="E23">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>4073</v>
+      </c>
+      <c r="E24">
+        <v>4324</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>5622</v>
+      </c>
+      <c r="E25">
+        <v>5873</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>7126</v>
+      </c>
+      <c r="E26">
+        <v>7376</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27">
-        <v>567</v>
+        <v>1545</v>
       </c>
       <c r="E27">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28">
-        <v>2458</v>
-      </c>
-      <c r="E28">
-        <v>2708</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C29">
-        <v>3</v>
-      </c>
-      <c r="D29">
-        <v>3990</v>
-      </c>
-      <c r="E29">
-        <f>D29+250</f>
-        <v>4240</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C30">
-        <v>4</v>
-      </c>
-      <c r="D30">
-        <v>5473</v>
-      </c>
-      <c r="E30">
-        <f t="shared" ref="E30:E31" si="3">D30+250</f>
-        <v>5723</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C31">
-        <v>5</v>
-      </c>
-      <c r="D31">
-        <v>7320</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="3"/>
-        <v>7570</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>4</v>
-      </c>
-      <c r="C33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>747</v>
-      </c>
-      <c r="E34">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C35">
-        <v>2</v>
-      </c>
-      <c r="D35">
-        <v>2709</v>
-      </c>
-      <c r="E35">
-        <v>2959</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="D36">
-        <v>4073</v>
-      </c>
-      <c r="E36">
-        <v>4324</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C37">
-        <v>4</v>
-      </c>
-      <c r="D37">
-        <v>5622</v>
-      </c>
-      <c r="E37">
-        <v>5873</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C38">
-        <v>5</v>
-      </c>
-      <c r="D38">
-        <v>7126</v>
-      </c>
-      <c r="E38">
-        <v>7376</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>5</v>
-      </c>
-      <c r="C40" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>1545</v>
-      </c>
-      <c r="E41">
         <v>2296</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>